--- a/testdata/LoginPageTest.xlsx
+++ b/testdata/LoginPageTest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutoTest\SevenPyest\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A5EC2B-7955-446E-9BB8-3E34EE1D108D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -44,19 +50,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>hotswwkyo</t>
+    <t>abcd123456789</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>abcd123456789</t>
+    <t>xiaoming</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -387,38 +396,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="54.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="73" style="1" customWidth="1"/>
     <col min="9" max="9" width="53" style="1" customWidth="1"/>
-    <col min="10" max="10" width="72.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="72.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="53" style="1" customWidth="1"/>
-    <col min="12" max="12" width="73.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="53.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="53.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="41.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="44.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="42.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="73.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="53.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="53.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="41.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="44.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="42.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.625" style="1" customWidth="1"/>
     <col min="19" max="19" width="45" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="39" customHeight="1">
+    <row r="2" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -429,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32.25" customHeight="1">
+    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -443,15 +452,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" customHeight="1">
+    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>

--- a/testdata/LoginPageTest.xlsx
+++ b/testdata/LoginPageTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutoTest\SevenPyest\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutoTest\AppSevenPyest\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A5EC2B-7955-446E-9BB8-3E34EE1D108D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F48FDE8-7B42-42FA-B6EB-8926D450DCA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,11 +50,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>abcd123456789</t>
+    <t>cs</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xiaoming</t>
+    <t>hy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +457,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
